--- a/SubmissionStuff/TCRs_HalfwayHome.xlsx
+++ b/SubmissionStuff/TCRs_HalfwayHome.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Marketing Materials</t>
   </si>
   <si>
-    <t>Edited video/trailer</t>
-  </si>
-  <si>
     <t>wmv, mov, avi, mp4</t>
   </si>
   <si>
@@ -142,12 +139,6 @@
     <t>any</t>
   </si>
   <si>
-    <t>Marketing Plan</t>
-  </si>
-  <si>
-    <t>if a marketing plan was required in class, submit it here</t>
-  </si>
-  <si>
     <t>doc or odt or pdf or rtf</t>
   </si>
   <si>
@@ -179,12 +170,6 @@
   </si>
   <si>
     <t>excel</t>
-  </si>
-  <si>
-    <t>Schedules, Gantt Charts or other Production Materials</t>
-  </si>
-  <si>
-    <t>Whatever production tools used to help develop the project and keep it on track.</t>
   </si>
   <si>
     <t>WEBPAGE</t>
@@ -288,18 +273,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>ALL required elements must be included in the installer: dlls, drivers, any distributable materials</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Uncompressed, edited together with music. May include voice over, may include text. MOBILE PROJECTS should make a video of someone using/playing the project on the device, and if possible, include video capture from any emulation.</t>
     </r>
   </si>
   <si>
@@ -1743,34 +1716,34 @@
     <row r="3" spans="1:7" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="A3" s="26"/>
       <c r="B3" s="27" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B7" s="11"/>
     </row>
@@ -1780,15 +1753,15 @@
     </row>
     <row r="11" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="79" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C12" s="18">
         <f>COUNTIF(TCRs!F$11:F$68,$D12)</f>
@@ -1857,10 +1830,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G16" s="76"/>
     </row>
@@ -1923,11 +1896,11 @@
       </c>
       <c r="E2" s="60"/>
       <c r="F2" s="61" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G2" s="61"/>
       <c r="H2" s="61" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1935,10 +1908,10 @@
         <v>42125</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="17">
@@ -1958,10 +1931,10 @@
         <v>42979</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E4" s="62"/>
       <c r="F4" s="17">
@@ -2022,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="74" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H7" s="17">
         <f>COUNTIF(G$10:G$72,G7)</f>
@@ -2041,7 +2014,7 @@
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="65" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B9" s="65" t="s">
         <v>13</v>
@@ -2053,16 +2026,16 @@
         <v>12</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G9" s="66" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H9" s="67" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2076,7 +2049,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="64"/>
@@ -2088,7 +2061,7 @@
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
       <c r="D11" s="72" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="14" t="s">
@@ -2104,14 +2077,14 @@
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="72" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E12" s="73"/>
       <c r="F12" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -2120,7 +2093,7 @@
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="72" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E13" s="73"/>
       <c r="F13" s="14" t="s">
@@ -2136,14 +2109,14 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="72" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E14" s="73"/>
       <c r="F14" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -2152,14 +2125,14 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="72" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E15" s="73"/>
       <c r="F15" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H15" s="15"/>
     </row>
@@ -2168,14 +2141,14 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="72" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E16" s="73"/>
       <c r="F16" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H16" s="15"/>
     </row>
@@ -2184,14 +2157,14 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="72" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E17" s="73"/>
       <c r="F17" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H17" s="15"/>
     </row>
@@ -2214,7 +2187,7 @@
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="14" t="s">
@@ -2230,21 +2203,21 @@
         <v>14</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C20" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="80" t="s">
         <v>97</v>
-      </c>
-      <c r="D20" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="80" t="s">
-        <v>103</v>
       </c>
       <c r="F20" s="81"/>
       <c r="G20" s="82"/>
       <c r="H20" s="73" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -2252,7 +2225,7 @@
       <c r="B21" s="73"/>
       <c r="C21" s="73"/>
       <c r="D21" s="73" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E21" s="73"/>
       <c r="F21" s="75"/>
@@ -2264,7 +2237,7 @@
       <c r="B22" s="73"/>
       <c r="C22" s="73"/>
       <c r="D22" s="73" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E22" s="73"/>
       <c r="F22" s="75"/>
@@ -2276,7 +2249,7 @@
       <c r="B23" s="73"/>
       <c r="C23" s="73"/>
       <c r="D23" s="73" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E23" s="73"/>
       <c r="F23" s="75"/>
@@ -2288,7 +2261,7 @@
       <c r="B24" s="73"/>
       <c r="C24" s="73"/>
       <c r="D24" s="73" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E24" s="73"/>
       <c r="F24" s="75"/>
@@ -2729,8 +2702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2935,7 +2908,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" s="39" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="32" customFormat="1" ht="46.2" x14ac:dyDescent="0.85">
@@ -2943,7 +2916,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="40" t="s">
@@ -2985,7 +2958,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3003,7 +2976,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3021,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
@@ -3033,11 +3006,11 @@
         <v>31</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="44" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3050,23 +3023,13 @@
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
     </row>
-    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4"/>
       <c r="B9" s="30"/>
-      <c r="C9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>73</v>
-      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
@@ -3074,58 +3037,48 @@
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="F11" s="44" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="B12" s="30"/>
-      <c r="C12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>73</v>
-      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="49"/>
       <c r="B13" s="52" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="48"/>
@@ -3138,7 +3091,7 @@
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="3"/>
@@ -3150,14 +3103,14 @@
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="44" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -3166,20 +3119,20 @@
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="44" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="49"/>
       <c r="B17" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" s="51"/>
       <c r="D17" s="48"/>
@@ -3188,20 +3141,20 @@
     </row>
     <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -3210,40 +3163,30 @@
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A20" s="4"/>
       <c r="B20" s="30"/>
-      <c r="C20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>73</v>
-      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="44"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="49"/>
       <c r="B21" s="50" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="48"/>
@@ -3256,16 +3199,16 @@
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/SubmissionStuff/TCRs_HalfwayHome.xlsx
+++ b/SubmissionStuff/TCRs_HalfwayHome.xlsx
@@ -2703,7 +2703,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="22" spans="1:6" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="5" t="s">

--- a/SubmissionStuff/TCRs_HalfwayHome.xlsx
+++ b/SubmissionStuff/TCRs_HalfwayHome.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7434" windowHeight="4488" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7434" windowHeight="4488" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -1857,7 +1857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2702,8 +2702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="7" t="s">
